--- a/OpFlix/Modelagem/T_OpFlix.Físico.xlsx
+++ b/OpFlix/Modelagem/T_OpFlix.Físico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44056839808\Documents\Sprint.1-Banco_de_dados\Sprint1-Banco.de.dados\OpFlix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44056839808\Documents\Sprint.1-Banco_de_dados\Sprint1-Banco.de.dados\OpFlix\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA5383F-ED4F-406A-B045-8C0015AD6790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E0DDD7-A46C-459A-A469-D4905ECE6007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6CBCB307-5BEB-414E-BF7F-F76E27B31D95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t xml:space="preserve">categorias </t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>TempoDuração</t>
+  </si>
+  <si>
+    <t>Veiculo</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>NetFlix</t>
+  </si>
+  <si>
+    <t>Prime Video</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>IdClassificação</t>
   </si>
 </sst>
 </file>
@@ -204,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,38 +248,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,98 +634,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00D35FB-B060-4E5E-980F-BE88CE82589F}">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="L2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1">
@@ -682,36 +718,15 @@
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44245</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="9">
-        <v>9.0277777777777776E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1">
@@ -726,36 +741,15 @@
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>54998</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1">
@@ -770,73 +764,40 @@
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="1">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7">
-        <v>44114</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="H13" s="1">
         <v>2</v>
       </c>
@@ -844,13 +805,221 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44245</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4">
+        <v>54998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44114</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D10:E10"/>
+  <mergeCells count="6">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="L2:R2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{D4218DE7-2BAC-4134-A628-678053C85965}"/>
